--- a/Master/DATABASE_IA.xlsx
+++ b/Master/DATABASE_IA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\FPNA-Tools v.1.1\Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\Flowbit\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D98ECA-6CD9-4665-B803-452CB6561F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AE74A3-7852-4ED6-9FE5-1ECC48E1CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69F88D26-E53E-44EB-8F6B-6F72C75FF8C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{69F88D26-E53E-44EB-8F6B-6F72C75FF8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="376">
   <si>
     <t>10.FOOD [BUMBU] - COM V.2</t>
   </si>
@@ -1135,6 +1135,24 @@
   </si>
   <si>
     <t>SPEAKER</t>
+  </si>
+  <si>
+    <t>GAS VALVE (A12-I-6000) (PD.4685H)</t>
+  </si>
+  <si>
+    <t>THERMOPHILE</t>
+  </si>
+  <si>
+    <t>BURNER FRY TOP PD.4401B</t>
+  </si>
+  <si>
+    <t>CHEMICAL SABUN CUCI</t>
+  </si>
+  <si>
+    <t>CHEMICAL SABUN BILAS</t>
+  </si>
+  <si>
+    <t>CHEMICAL PEMBERSIH KERAK</t>
   </si>
 </sst>
 </file>
@@ -1190,9 +1208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1230,7 +1248,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1336,7 +1354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1478,7 +1496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1487,18 +1505,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B8BE52-5B4F-47C1-84A8-24A4E0133727}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1530,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1538,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1546,7 +1564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1562,7 +1580,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1586,7 +1604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1610,7 +1628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1658,7 +1676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1682,7 +1700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1690,7 +1708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1714,7 +1732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1738,7 +1756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1746,7 +1764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1762,7 +1780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1770,7 +1788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1778,7 +1796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1786,7 +1804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1794,7 +1812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1802,7 +1820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1810,7 +1828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1818,7 +1836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1826,7 +1844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1834,7 +1852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1850,7 +1868,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -1858,7 +1876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1874,7 +1892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1882,7 +1900,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -1890,7 +1908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -1898,7 +1916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -1906,7 +1924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -1922,7 +1940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -1930,7 +1948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -1938,7 +1956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -1946,7 +1964,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -1954,7 +1972,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1962,7 +1980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1970,7 +1988,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1978,7 +1996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1986,7 +2004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -1994,7 +2012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2002,7 +2020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2010,7 +2028,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2026,7 +2044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2034,7 +2052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -2050,7 +2068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2058,7 +2076,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>65</v>
       </c>
@@ -2066,7 +2084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -2074,7 +2092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -2082,7 +2100,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -2090,7 +2108,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -2106,7 +2124,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>65</v>
       </c>
@@ -2114,7 +2132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -2122,7 +2140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -2130,7 +2148,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -2138,7 +2156,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>65</v>
       </c>
@@ -2146,7 +2164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -2154,7 +2172,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>65</v>
       </c>
@@ -2162,7 +2180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>65</v>
       </c>
@@ -2170,7 +2188,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>65</v>
       </c>
@@ -2178,7 +2196,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -2186,7 +2204,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>65</v>
       </c>
@@ -2194,7 +2212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>65</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>65</v>
       </c>
@@ -2210,7 +2228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>65</v>
       </c>
@@ -2218,7 +2236,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>65</v>
       </c>
@@ -2226,7 +2244,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>65</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>65</v>
       </c>
@@ -2242,7 +2260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>65</v>
       </c>
@@ -2250,7 +2268,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -2258,7 +2276,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>65</v>
       </c>
@@ -2266,7 +2284,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>65</v>
       </c>
@@ -2274,7 +2292,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>65</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>65</v>
       </c>
@@ -2290,7 +2308,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>65</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>65</v>
       </c>
@@ -2306,7 +2324,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>65</v>
       </c>
@@ -2314,7 +2332,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -2322,7 +2340,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>65</v>
       </c>
@@ -2330,7 +2348,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>65</v>
       </c>
@@ -2338,7 +2356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>65</v>
       </c>
@@ -2346,7 +2364,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>65</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>65</v>
       </c>
@@ -2362,7 +2380,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>65</v>
       </c>
@@ -2370,7 +2388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>65</v>
       </c>
@@ -2378,7 +2396,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>65</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>65</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>65</v>
       </c>
@@ -2402,7 +2420,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>65</v>
       </c>
@@ -2410,7 +2428,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>65</v>
       </c>
@@ -2418,7 +2436,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>65</v>
       </c>
@@ -2426,7 +2444,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>65</v>
       </c>
@@ -2434,7 +2452,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>65</v>
       </c>
@@ -2442,7 +2460,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>65</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>65</v>
       </c>
@@ -2458,7 +2476,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>65</v>
       </c>
@@ -2474,7 +2492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -2482,7 +2500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>65</v>
       </c>
@@ -2490,7 +2508,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -2498,7 +2516,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -2506,7 +2524,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>65</v>
       </c>
@@ -2514,7 +2532,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -2522,7 +2540,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>65</v>
       </c>
@@ -2530,7 +2548,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2556,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>65</v>
       </c>
@@ -2546,7 +2564,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -2554,7 +2572,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>65</v>
       </c>
@@ -2562,7 +2580,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>65</v>
       </c>
@@ -2570,7 +2588,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -2578,7 +2596,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>65</v>
       </c>
@@ -2586,7 +2604,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>65</v>
       </c>
@@ -2594,7 +2612,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>65</v>
       </c>
@@ -2602,7 +2620,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>65</v>
       </c>
@@ -2610,7 +2628,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>65</v>
       </c>
@@ -2618,7 +2636,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>65</v>
       </c>
@@ -2626,7 +2644,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>65</v>
       </c>
@@ -2634,7 +2652,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>65</v>
       </c>
@@ -2642,7 +2660,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>63</v>
       </c>
@@ -2650,7 +2668,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>65</v>
       </c>
@@ -2658,7 +2676,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>65</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>65</v>
       </c>
@@ -2674,7 +2692,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -2682,7 +2700,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>65</v>
       </c>
@@ -2690,7 +2708,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>65</v>
       </c>
@@ -2698,7 +2716,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>65</v>
       </c>
@@ -2706,7 +2724,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>65</v>
       </c>
@@ -2714,7 +2732,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>65</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>65</v>
       </c>
@@ -2730,7 +2748,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>65</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>65</v>
       </c>
@@ -2746,7 +2764,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>65</v>
       </c>
@@ -2754,7 +2772,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>65</v>
       </c>
@@ -2762,7 +2780,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>65</v>
       </c>
@@ -2770,7 +2788,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>65</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>65</v>
       </c>
@@ -2786,7 +2804,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>65</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>65</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>65</v>
       </c>
@@ -2810,7 +2828,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>65</v>
       </c>
@@ -2818,7 +2836,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>65</v>
       </c>
@@ -2826,7 +2844,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>65</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>65</v>
       </c>
@@ -2842,7 +2860,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>65</v>
       </c>
@@ -2850,7 +2868,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>65</v>
       </c>
@@ -2858,7 +2876,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>65</v>
       </c>
@@ -2866,7 +2884,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>65</v>
       </c>
@@ -2874,7 +2892,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>65</v>
       </c>
@@ -2882,7 +2900,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>65</v>
       </c>
@@ -2890,7 +2908,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>65</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>65</v>
       </c>
@@ -2906,7 +2924,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>65</v>
       </c>
@@ -2914,7 +2932,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>65</v>
       </c>
@@ -2922,7 +2940,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>65</v>
       </c>
@@ -2930,7 +2948,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>65</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>65</v>
       </c>
@@ -2946,7 +2964,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>63</v>
       </c>
@@ -2954,7 +2972,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>65</v>
       </c>
@@ -2962,7 +2980,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>65</v>
       </c>
@@ -2970,7 +2988,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>65</v>
       </c>
@@ -2978,7 +2996,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>65</v>
       </c>
@@ -2986,7 +3004,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>65</v>
       </c>
@@ -2994,7 +3012,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>65</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>65</v>
       </c>
@@ -3010,7 +3028,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>65</v>
       </c>
@@ -3018,7 +3036,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>65</v>
       </c>
@@ -3026,7 +3044,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>65</v>
       </c>
@@ -3034,7 +3052,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>65</v>
       </c>
@@ -3042,7 +3060,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>65</v>
       </c>
@@ -3050,7 +3068,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>65</v>
       </c>
@@ -3058,7 +3076,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>65</v>
       </c>
@@ -3066,7 +3084,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>65</v>
       </c>
@@ -3074,7 +3092,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>65</v>
       </c>
@@ -3082,7 +3100,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>65</v>
       </c>
@@ -3090,7 +3108,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>65</v>
       </c>
@@ -3098,7 +3116,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>65</v>
       </c>
@@ -3106,7 +3124,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>65</v>
       </c>
@@ -3114,7 +3132,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>65</v>
       </c>
@@ -3122,7 +3140,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -3130,7 +3148,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>38</v>
       </c>
@@ -3138,7 +3156,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>65</v>
       </c>
@@ -3146,7 +3164,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>65</v>
       </c>
@@ -3154,7 +3172,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -3162,7 +3180,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -3170,7 +3188,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>65</v>
       </c>
@@ -3178,7 +3196,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>65</v>
       </c>
@@ -3186,7 +3204,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>65</v>
       </c>
@@ -3194,7 +3212,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>65</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>65</v>
       </c>
@@ -3210,7 +3228,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>65</v>
       </c>
@@ -3218,7 +3236,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>65</v>
       </c>
@@ -3226,7 +3244,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>65</v>
       </c>
@@ -3234,7 +3252,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>65</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>65</v>
       </c>
@@ -3250,7 +3268,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>65</v>
       </c>
@@ -3258,7 +3276,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>65</v>
       </c>
@@ -3266,7 +3284,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>65</v>
       </c>
@@ -3274,7 +3292,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>65</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>65</v>
       </c>
@@ -3290,7 +3308,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>65</v>
       </c>
@@ -3298,7 +3316,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>65</v>
       </c>
@@ -3306,7 +3324,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>65</v>
       </c>
@@ -3314,7 +3332,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>65</v>
       </c>
@@ -3322,7 +3340,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>65</v>
       </c>
@@ -3330,7 +3348,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>65</v>
       </c>
@@ -3346,7 +3364,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>65</v>
       </c>
@@ -3354,7 +3372,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>65</v>
       </c>
@@ -3362,7 +3380,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>65</v>
       </c>
@@ -3370,7 +3388,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>65</v>
       </c>
@@ -3378,7 +3396,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>65</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>65</v>
       </c>
@@ -3394,7 +3412,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>65</v>
       </c>
@@ -3402,7 +3420,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>65</v>
       </c>
@@ -3410,7 +3428,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>65</v>
       </c>
@@ -3418,7 +3436,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>65</v>
       </c>
@@ -3426,7 +3444,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>65</v>
       </c>
@@ -3434,7 +3452,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>65</v>
       </c>
@@ -3442,7 +3460,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>65</v>
       </c>
@@ -3450,7 +3468,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>65</v>
       </c>
@@ -3458,7 +3476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -3466,7 +3484,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>65</v>
       </c>
@@ -3474,7 +3492,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>65</v>
       </c>
@@ -3482,7 +3500,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>65</v>
       </c>
@@ -3490,7 +3508,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>65</v>
       </c>
@@ -3498,7 +3516,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>65</v>
       </c>
@@ -3506,7 +3524,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>65</v>
       </c>
@@ -3514,7 +3532,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>65</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>65</v>
       </c>
@@ -3530,7 +3548,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>65</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>65</v>
       </c>
@@ -3546,7 +3564,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>65</v>
       </c>
@@ -3554,7 +3572,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>65</v>
       </c>
@@ -3562,7 +3580,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>65</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>65</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>65</v>
       </c>
@@ -3586,7 +3604,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>65</v>
       </c>
@@ -3594,7 +3612,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>65</v>
       </c>
@@ -3602,7 +3620,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>65</v>
       </c>
@@ -3610,7 +3628,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>65</v>
       </c>
@@ -3618,7 +3636,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>65</v>
       </c>
@@ -3626,7 +3644,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>65</v>
       </c>
@@ -3634,7 +3652,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>65</v>
       </c>
@@ -3642,7 +3660,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>65</v>
       </c>
@@ -3650,7 +3668,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>65</v>
       </c>
@@ -3658,7 +3676,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>65</v>
       </c>
@@ -3666,7 +3684,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>65</v>
       </c>
@@ -3674,7 +3692,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>65</v>
       </c>
@@ -3682,7 +3700,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>65</v>
       </c>
@@ -3690,7 +3708,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>65</v>
       </c>
@@ -3698,7 +3716,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>65</v>
       </c>
@@ -3706,7 +3724,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>65</v>
       </c>
@@ -3714,7 +3732,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>65</v>
       </c>
@@ -3722,7 +3740,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>287</v>
       </c>
@@ -3730,7 +3748,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>287</v>
       </c>
@@ -3738,7 +3756,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -3746,7 +3764,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>287</v>
       </c>
@@ -3754,7 +3772,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>287</v>
       </c>
@@ -3762,7 +3780,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -3770,7 +3788,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -3778,7 +3796,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -3794,7 +3812,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -3802,7 +3820,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -3810,7 +3828,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>287</v>
       </c>
@@ -3818,7 +3836,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>300</v>
       </c>
@@ -3826,7 +3844,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>65</v>
       </c>
@@ -3834,7 +3852,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>287</v>
       </c>
@@ -3842,7 +3860,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>13</v>
       </c>
@@ -3850,7 +3868,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>65</v>
       </c>
@@ -3858,7 +3876,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>65</v>
       </c>
@@ -3866,7 +3884,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>65</v>
       </c>
@@ -3882,7 +3900,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -3890,7 +3908,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>65</v>
       </c>
@@ -3898,7 +3916,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>13</v>
       </c>
@@ -3906,7 +3924,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>287</v>
       </c>
@@ -3914,7 +3932,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -3922,7 +3940,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>65</v>
       </c>
@@ -3930,7 +3948,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>65</v>
       </c>
@@ -3938,7 +3956,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>65</v>
       </c>
@@ -3946,7 +3964,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>65</v>
       </c>
@@ -3954,7 +3972,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>65</v>
       </c>
@@ -3962,7 +3980,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -3970,7 +3988,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>34</v>
       </c>
@@ -3978,7 +3996,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>13</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -3994,7 +4012,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>13</v>
       </c>
@@ -4002,7 +4020,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -4010,7 +4028,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>38</v>
       </c>
@@ -4018,7 +4036,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>63</v>
       </c>
@@ -4026,7 +4044,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>65</v>
       </c>
@@ -4034,7 +4052,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>65</v>
       </c>
@@ -4042,7 +4060,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>65</v>
       </c>
@@ -4050,7 +4068,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>65</v>
       </c>
@@ -4058,7 +4076,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>65</v>
       </c>
@@ -4066,7 +4084,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>65</v>
       </c>
@@ -4074,7 +4092,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>65</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>38</v>
       </c>
@@ -4090,7 +4108,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>65</v>
       </c>
@@ -4098,7 +4116,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>65</v>
       </c>
@@ -4106,7 +4124,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>65</v>
       </c>
@@ -4114,7 +4132,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>65</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>65</v>
       </c>
@@ -4130,7 +4148,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>65</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>65</v>
       </c>
@@ -4146,7 +4164,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>65</v>
       </c>
@@ -4154,7 +4172,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>38</v>
       </c>
@@ -4162,7 +4180,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>38</v>
       </c>
@@ -4170,7 +4188,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>65</v>
       </c>
@@ -4178,7 +4196,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>65</v>
       </c>
@@ -4186,7 +4204,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>65</v>
       </c>
@@ -4194,7 +4212,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>65</v>
       </c>
@@ -4202,7 +4220,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>65</v>
       </c>
@@ -4210,7 +4228,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -4218,7 +4236,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>65</v>
       </c>
@@ -4226,7 +4244,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>65</v>
       </c>
@@ -4234,7 +4252,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>38</v>
       </c>
@@ -4242,7 +4260,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>65</v>
       </c>
@@ -4250,7 +4268,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -4258,7 +4276,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>65</v>
       </c>
@@ -4266,7 +4284,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>65</v>
       </c>
@@ -4274,7 +4292,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>38</v>
       </c>
@@ -4282,7 +4300,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>38</v>
       </c>
@@ -4290,7 +4308,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>65</v>
       </c>
@@ -4298,7 +4316,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>65</v>
       </c>
@@ -4306,7 +4324,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>65</v>
       </c>
@@ -4314,7 +4332,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>65</v>
       </c>
@@ -4322,7 +4340,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>65</v>
       </c>
@@ -4330,7 +4348,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>65</v>
       </c>
@@ -4338,7 +4356,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>65</v>
       </c>
@@ -4346,7 +4364,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>65</v>
       </c>
@@ -4354,12 +4372,60 @@
         <v>368</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>65</v>
       </c>
       <c r="B358" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>65</v>
+      </c>
+      <c r="B359" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>65</v>
+      </c>
+      <c r="B360" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>65</v>
+      </c>
+      <c r="B361" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>38</v>
+      </c>
+      <c r="B362" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>38</v>
+      </c>
+      <c r="B363" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>38</v>
+      </c>
+      <c r="B364" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/Master/DATABASE_IA.xlsx
+++ b/Master/DATABASE_IA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEX\DEX-FPnA\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115FA80A-0FDA-4CB6-B9F5-23C9D8525F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598B54AC-1BA4-414E-936C-6695F0A74BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{69F88D26-E53E-44EB-8F6B-6F72C75FF8C3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$343</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="342">
   <si>
     <t>10.FOOD [BUMBU] - COM V.2</t>
   </si>
@@ -1062,6 +1062,9 @@
   </si>
   <si>
     <t>Biaya Perlengkapan</t>
+  </si>
+  <si>
+    <t>Packaging Usage</t>
   </si>
 </sst>
 </file>
@@ -1097,9 +1100,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,2637 +1417,2759 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B8BE52-5B4F-47C1-84A8-24A4E0133727}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B56" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B66" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B69" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B70" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B71" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B73" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B75" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B76" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B77" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B78" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B79" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B80" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B81" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>232</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B82" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>232</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B83" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>232</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B84" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>232</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B85" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>232</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B86" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>232</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B87" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>232</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B88" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>232</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B89" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>232</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B90" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>232</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B91" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B92" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>232</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B93" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>245</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B94" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>232</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B95" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B96" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B97" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B98" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B99" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>232</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B100" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B101" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B102" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B103" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B104" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B105" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B106" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B107" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>38</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B108" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>63</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B109" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B110" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B111" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B112" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>13</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B113" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B114" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>13</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B115" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B116" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>38</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B117" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>38</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B118" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>38</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B119" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B120" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B106" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>340</v>
+      </c>
+      <c r="B121" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B110" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>340</v>
+      </c>
+      <c r="B125" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B111" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B112" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B127" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B113" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>65</v>
+      </c>
+      <c r="B129" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>340</v>
+      </c>
+      <c r="B130" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>65</v>
+      </c>
+      <c r="B131" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>340</v>
+      </c>
+      <c r="B132" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>340</v>
+      </c>
+      <c r="B133" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>340</v>
+      </c>
+      <c r="B134" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>340</v>
+      </c>
+      <c r="B135" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>340</v>
+      </c>
+      <c r="B136" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B122" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>340</v>
+      </c>
+      <c r="B137" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>340</v>
+      </c>
+      <c r="B140" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>340</v>
+      </c>
+      <c r="B141" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>340</v>
+      </c>
+      <c r="B142" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B128" s="1" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>340</v>
+      </c>
+      <c r="B144" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>340</v>
+      </c>
+      <c r="B145" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B131" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>340</v>
+      </c>
+      <c r="B146" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>340</v>
+      </c>
+      <c r="B147" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>65</v>
+      </c>
+      <c r="B148" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>340</v>
+      </c>
+      <c r="B149" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>340</v>
+      </c>
+      <c r="B150" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B137" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B138" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>340</v>
+      </c>
+      <c r="B153" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B139" s="1" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>340</v>
+      </c>
+      <c r="B154" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>65</v>
+      </c>
+      <c r="B155" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B141" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>340</v>
+      </c>
+      <c r="B156" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B142" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>340</v>
+      </c>
+      <c r="B157" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B143" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>65</v>
+      </c>
+      <c r="B159" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>65</v>
+      </c>
+      <c r="B160" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>340</v>
+      </c>
+      <c r="B161" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B147" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>340</v>
+      </c>
+      <c r="B162" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B148" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>340</v>
+      </c>
+      <c r="B163" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B149" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>340</v>
+      </c>
+      <c r="B164" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B150" s="1" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B151" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>340</v>
+      </c>
+      <c r="B166" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B152" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>65</v>
+      </c>
+      <c r="B167" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B153" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>65</v>
+      </c>
+      <c r="B168" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B154" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B155" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B156" s="1" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B157" s="1" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B158" s="1" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B159" s="1" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B160" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>340</v>
+      </c>
+      <c r="B175" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B161" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>340</v>
+      </c>
+      <c r="B176" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B162" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>340</v>
+      </c>
+      <c r="B177" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B163" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>340</v>
+      </c>
+      <c r="B178" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B164" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>340</v>
+      </c>
+      <c r="B179" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B165" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>65</v>
+      </c>
+      <c r="B180" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B166" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>340</v>
+      </c>
+      <c r="B181" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B167" s="1" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>340</v>
+      </c>
+      <c r="B182" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B168" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>340</v>
+      </c>
+      <c r="B183" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B169" s="1" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>340</v>
+      </c>
+      <c r="B184" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B170" s="1" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>340</v>
+      </c>
+      <c r="B185" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B171" s="1" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>340</v>
+      </c>
+      <c r="B186" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B172" s="1" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>340</v>
+      </c>
+      <c r="B187" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B173" s="1" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>340</v>
+      </c>
+      <c r="B188" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B174" s="1" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>65</v>
+      </c>
+      <c r="B189" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B175" s="1" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>65</v>
+      </c>
+      <c r="B190" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B176" s="1" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>65</v>
+      </c>
+      <c r="B191" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B177" s="1" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>340</v>
+      </c>
+      <c r="B192" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B178" s="1" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>340</v>
+      </c>
+      <c r="B193" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B179" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>340</v>
+      </c>
+      <c r="B194" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B180" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>340</v>
+      </c>
+      <c r="B195" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B181" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>65</v>
+      </c>
+      <c r="B196" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B182" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>340</v>
+      </c>
+      <c r="B197" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B183" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>65</v>
+      </c>
+      <c r="B198" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B184" s="1" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>65</v>
+      </c>
+      <c r="B199" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B185" s="1" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>65</v>
+      </c>
+      <c r="B200" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B186" s="1" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>65</v>
+      </c>
+      <c r="B201" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B187" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>340</v>
+      </c>
+      <c r="B202" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B188" s="1" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>340</v>
+      </c>
+      <c r="B203" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B189" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>340</v>
+      </c>
+      <c r="B204" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B190" s="1" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>340</v>
+      </c>
+      <c r="B205" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B191" s="1" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>340</v>
+      </c>
+      <c r="B206" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B192" s="1" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>340</v>
+      </c>
+      <c r="B207" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B193" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>340</v>
+      </c>
+      <c r="B208" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B194" s="1" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>65</v>
+      </c>
+      <c r="B209" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B195" s="1" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>65</v>
+      </c>
+      <c r="B210" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B196" s="1" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>65</v>
+      </c>
+      <c r="B211" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B197" s="1" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>65</v>
+      </c>
+      <c r="B212" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B198" s="1" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>65</v>
+      </c>
+      <c r="B213" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B199" s="1" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>65</v>
+      </c>
+      <c r="B214" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B200" s="1" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>340</v>
+      </c>
+      <c r="B215" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B201" s="1" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>340</v>
+      </c>
+      <c r="B216" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B202" s="1" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>65</v>
+      </c>
+      <c r="B217" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B203" s="1" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>65</v>
+      </c>
+      <c r="B218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B204" s="1" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>340</v>
+      </c>
+      <c r="B219" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B205" s="1" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>340</v>
+      </c>
+      <c r="B220" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B206" s="1" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>65</v>
+      </c>
+      <c r="B221" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B207" s="1" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>65</v>
+      </c>
+      <c r="B222" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B208" s="1" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>340</v>
+      </c>
+      <c r="B223" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B209" s="1" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>65</v>
+      </c>
+      <c r="B224" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B210" s="1" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>65</v>
+      </c>
+      <c r="B225" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B211" s="1" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>65</v>
+      </c>
+      <c r="B226" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B212" s="1" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>65</v>
+      </c>
+      <c r="B227" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B213" s="1" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>340</v>
+      </c>
+      <c r="B228" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B214" s="1" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>340</v>
+      </c>
+      <c r="B229" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B215" s="1" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>340</v>
+      </c>
+      <c r="B230" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B216" s="1" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>340</v>
+      </c>
+      <c r="B231" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B217" s="1" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>65</v>
+      </c>
+      <c r="B232" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B218" s="1" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>340</v>
+      </c>
+      <c r="B233" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B219" s="1" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>65</v>
+      </c>
+      <c r="B234" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B220" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>65</v>
+      </c>
+      <c r="B235" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B221" s="1" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>340</v>
+      </c>
+      <c r="B236" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B222" s="1" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>340</v>
+      </c>
+      <c r="B237" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B223" s="1" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>340</v>
+      </c>
+      <c r="B238" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B224" s="1" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>340</v>
+      </c>
+      <c r="B239" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B225" s="1" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>340</v>
+      </c>
+      <c r="B240" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B226" s="1" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>340</v>
+      </c>
+      <c r="B241" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B227" s="1" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>340</v>
+      </c>
+      <c r="B242" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B228" s="1" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>65</v>
+      </c>
+      <c r="B243" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B229" s="1" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>340</v>
+      </c>
+      <c r="B244" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B230" s="1" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>65</v>
+      </c>
+      <c r="B245" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B231" s="1" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>340</v>
+      </c>
+      <c r="B246" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B232" s="1" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>65</v>
+      </c>
+      <c r="B247" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B233" s="1" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>340</v>
+      </c>
+      <c r="B248" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B234" s="1" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>340</v>
+      </c>
+      <c r="B249" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B235" s="1" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>340</v>
+      </c>
+      <c r="B250" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B236" s="1" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>340</v>
+      </c>
+      <c r="B251" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B237" s="1" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>340</v>
+      </c>
+      <c r="B252" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B238" s="1" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>340</v>
+      </c>
+      <c r="B253" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B239" s="1" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>340</v>
+      </c>
+      <c r="B254" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B240" s="1" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>340</v>
+      </c>
+      <c r="B255" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B241" s="1" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>65</v>
+      </c>
+      <c r="B256" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B242" s="1" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>340</v>
+      </c>
+      <c r="B257" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B243" s="1" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>340</v>
+      </c>
+      <c r="B258" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B244" s="1" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>340</v>
+      </c>
+      <c r="B259" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B245" s="1" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>340</v>
+      </c>
+      <c r="B260" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B246" s="1" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>340</v>
+      </c>
+      <c r="B261" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B247" s="1" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>340</v>
+      </c>
+      <c r="B262" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B248" s="1" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>340</v>
+      </c>
+      <c r="B263" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B249" s="1" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>340</v>
+      </c>
+      <c r="B264" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B250" s="1" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>65</v>
+      </c>
+      <c r="B265" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B251" s="1" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>65</v>
+      </c>
+      <c r="B266" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B252" s="1" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>340</v>
+      </c>
+      <c r="B267" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B253" s="1" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>340</v>
+      </c>
+      <c r="B268" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B254" s="1" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>65</v>
+      </c>
+      <c r="B269" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B255" s="1" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>65</v>
+      </c>
+      <c r="B270" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B256" s="1" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>65</v>
+      </c>
+      <c r="B271" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B257" s="1" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>65</v>
+      </c>
+      <c r="B272" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B258" s="1" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>340</v>
+      </c>
+      <c r="B273" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B259" s="1" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>340</v>
+      </c>
+      <c r="B274" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B260" s="1" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>340</v>
+      </c>
+      <c r="B275" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B261" s="1" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>65</v>
+      </c>
+      <c r="B276" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B262" s="1" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>65</v>
+      </c>
+      <c r="B277" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B263" s="1" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>340</v>
+      </c>
+      <c r="B278" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B264" s="1" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>340</v>
+      </c>
+      <c r="B279" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B265" s="1" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>65</v>
+      </c>
+      <c r="B280" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B266" s="1" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>65</v>
+      </c>
+      <c r="B281" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B267" s="1" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>65</v>
+      </c>
+      <c r="B282" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B268" s="1" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>340</v>
+      </c>
+      <c r="B283" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B269" s="1" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>340</v>
+      </c>
+      <c r="B284" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B270" s="1" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>340</v>
+      </c>
+      <c r="B285" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B271" s="1" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>340</v>
+      </c>
+      <c r="B286" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B272" s="1" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>340</v>
+      </c>
+      <c r="B287" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B273" s="1" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>65</v>
+      </c>
+      <c r="B288" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B274" s="1" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>340</v>
+      </c>
+      <c r="B289" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B275" s="1" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>340</v>
+      </c>
+      <c r="B290" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B276" s="1" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>340</v>
+      </c>
+      <c r="B291" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B277" s="1" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>340</v>
+      </c>
+      <c r="B292" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B278" s="1" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>340</v>
+      </c>
+      <c r="B293" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B279" s="1" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>340</v>
+      </c>
+      <c r="B294" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B280" s="1" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>340</v>
+      </c>
+      <c r="B295" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B281" s="1" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>340</v>
+      </c>
+      <c r="B296" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B282" s="1" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>340</v>
+      </c>
+      <c r="B297" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B283" s="1" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>340</v>
+      </c>
+      <c r="B298" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B284" s="1" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>340</v>
+      </c>
+      <c r="B299" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B285" s="1" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>340</v>
+      </c>
+      <c r="B300" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B286" s="1" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>340</v>
+      </c>
+      <c r="B301" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B287" s="1" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>340</v>
+      </c>
+      <c r="B302" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B288" s="1" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>340</v>
+      </c>
+      <c r="B303" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B289" s="1" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>340</v>
+      </c>
+      <c r="B304" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B290" s="1" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>65</v>
+      </c>
+      <c r="B305" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B291" s="1" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>340</v>
+      </c>
+      <c r="B306" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B292" s="1" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>340</v>
+      </c>
+      <c r="B307" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B293" s="1" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>65</v>
+      </c>
+      <c r="B308" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B294" s="1" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>65</v>
+      </c>
+      <c r="B309" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B295" s="1" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>340</v>
+      </c>
+      <c r="B310" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B296" s="1" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>340</v>
+      </c>
+      <c r="B311" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B297" s="1" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>340</v>
+      </c>
+      <c r="B312" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B298" s="1" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>340</v>
+      </c>
+      <c r="B313" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B299" s="1" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>65</v>
+      </c>
+      <c r="B314" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B300" s="1" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>340</v>
+      </c>
+      <c r="B315" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B301" s="1" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>340</v>
+      </c>
+      <c r="B316" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B302" s="1" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>340</v>
+      </c>
+      <c r="B317" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B303" s="1" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>340</v>
+      </c>
+      <c r="B318" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B304" s="1" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>340</v>
+      </c>
+      <c r="B319" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B305" s="1" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>65</v>
+      </c>
+      <c r="B320" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B306" s="1" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>340</v>
+      </c>
+      <c r="B321" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B307" s="1" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>340</v>
+      </c>
+      <c r="B322" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B308" s="1" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>340</v>
+      </c>
+      <c r="B323" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B309" s="1" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>340</v>
+      </c>
+      <c r="B324" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B310" s="1" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>340</v>
+      </c>
+      <c r="B325" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B311" s="1" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>65</v>
+      </c>
+      <c r="B326" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B312" s="1" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>65</v>
+      </c>
+      <c r="B327" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B313" s="1" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>65</v>
+      </c>
+      <c r="B328" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B314" s="1" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>340</v>
+      </c>
+      <c r="B329" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B315" s="1" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>340</v>
+      </c>
+      <c r="B330" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B316" s="1" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>340</v>
+      </c>
+      <c r="B331" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B317" s="1" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>65</v>
+      </c>
+      <c r="B332" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B318" s="1" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>340</v>
+      </c>
+      <c r="B333" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B319" s="1" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>340</v>
+      </c>
+      <c r="B334" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B320" s="1" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>340</v>
+      </c>
+      <c r="B335" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B321" s="1" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>65</v>
+      </c>
+      <c r="B336" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B322" s="1" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>65</v>
+      </c>
+      <c r="B337" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B323" s="1" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>65</v>
+      </c>
+      <c r="B338" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B324" s="1" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B325" s="1" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B326" s="1" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B327" s="1" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B328" s="1" t="s">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>340</v>
+      </c>
+      <c r="B343" t="s">
         <v>339</v>
       </c>
     </row>
